--- a/data/trans_camb/P43C-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P43C-Estudios-trans_camb.xlsx
@@ -590,7 +590,7 @@
         <v>10.81201702208237</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5.470451726585734</v>
+        <v>5.470451726585745</v>
       </c>
     </row>
     <row r="5">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8.858072070575808</v>
+        <v>8.978188010907626</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.741865351628326</v>
+        <v>6.643730681505717</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.575079429725397</v>
+        <v>1.432631908496735</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.82649644896317</v>
+        <v>16.74491320682375</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.31795194086558</v>
+        <v>15.05168082633771</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.349936342922126</v>
+        <v>9.549892898718397</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>0.2662650118739255</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.1347195339186167</v>
+        <v>0.134719533918617</v>
       </c>
     </row>
     <row r="8">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.208702417049337</v>
+        <v>0.210158742271994</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1597575277641302</v>
+        <v>0.1562939724939912</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.03628784652777494</v>
+        <v>0.03395058322827233</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4329470431409552</v>
+        <v>0.432873099564869</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3924300510941992</v>
+        <v>0.3926050401050795</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2424117778241413</v>
+        <v>0.2483332240290326</v>
       </c>
     </row>
     <row r="10">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.746273100257726</v>
+        <v>7.197341500463496</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.983291201732874</v>
+        <v>2.950177317783205</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.275207643512559</v>
+        <v>-6.650907823866473</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.09403862699913</v>
+        <v>14.18439069513562</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.64042442230482</v>
+        <v>9.225186924689176</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5997726559339491</v>
+        <v>0.3456872007187782</v>
       </c>
     </row>
     <row r="13">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1248747492144555</v>
+        <v>0.1181171093324363</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.04864713017198485</v>
+        <v>0.04853255403680778</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1027099187417497</v>
+        <v>-0.1073213846839162</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2439717228917778</v>
+        <v>0.2439646273793195</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1639494830218565</v>
+        <v>0.157166590286598</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.009453165498460089</v>
+        <v>0.005987212496945899</v>
       </c>
     </row>
     <row r="16">
@@ -802,7 +802,7 @@
         <v>8.783682963891625</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7.146902204130246</v>
+        <v>7.146902204130234</v>
       </c>
     </row>
     <row r="17">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.857145618677667</v>
+        <v>1.737396038975503</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.973188592602873</v>
+        <v>3.261236940785059</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.411503860289709</v>
+        <v>1.395372235267683</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.08543583871792</v>
+        <v>13.59941825198089</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.17306082255263</v>
+        <v>14.30748621574346</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.86195438661712</v>
+        <v>12.6815132781711</v>
       </c>
     </row>
     <row r="19">
@@ -853,7 +853,7 @@
         <v>0.1278060765661314</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.1039902662774422</v>
+        <v>0.1039902662774421</v>
       </c>
     </row>
     <row r="20">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.02630701368249268</v>
+        <v>0.02348511831089222</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.04417828483627993</v>
+        <v>0.04480486348713323</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.01919015641674987</v>
+        <v>0.01786489092289097</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2016453993546821</v>
+        <v>0.2066901028007875</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2182109131117281</v>
+        <v>0.2222873825755464</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.19341115084016</v>
+        <v>0.1909500136968529</v>
       </c>
     </row>
     <row r="22">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>8.751982298026482</v>
+        <v>8.751542097748571</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.580690315606783</v>
+        <v>7.440733979770045</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.46053144340908</v>
+        <v>1.675562572866227</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.56411721037723</v>
+        <v>13.63273637868716</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.4520399105472</v>
+        <v>12.45516710720351</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.459635706463207</v>
+        <v>6.348703606822051</v>
       </c>
     </row>
     <row r="25">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1596827723437007</v>
+        <v>0.1598299990838686</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1361907037572438</v>
+        <v>0.1345008239484024</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.02684217246485698</v>
+        <v>0.03045830001431097</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2593581266442598</v>
+        <v>0.2596942891828247</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2359830976385459</v>
+        <v>0.2371177115192152</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1244667678860437</v>
+        <v>0.1201249008278634</v>
       </c>
     </row>
     <row r="28">
